--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C8798C-7FD2-4E38-96DE-02516C50C942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA67FB3-9ED4-4B51-8D25-7D6E21942A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>kol</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>انبارگرداني</t>
-  </si>
-  <si>
-    <t>مضاربه</t>
   </si>
 </sst>
 </file>
@@ -384,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -665,26 +662,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>103</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA67FB3-9ED4-4B51-8D25-7D6E21942A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E103861-2B5B-4930-B059-2371CD8E14C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>kol</t>
   </si>
@@ -49,13 +49,28 @@
   </si>
   <si>
     <t>انبارگرداني</t>
+  </si>
+  <si>
+    <t>acc_year</t>
+  </si>
+  <si>
+    <t>بستن حساب هاي درآمد</t>
+  </si>
+  <si>
+    <t>بستن حساب هاي هزينه</t>
+  </si>
+  <si>
+    <t>بستن حساب هاي دارائي</t>
+  </si>
+  <si>
+    <t>بستن حساب هاي بدهي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +88,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,284 +403,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B2" s="2">
         <v>501</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
       <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>10185</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
       <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>2283</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
       <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>10841</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
       <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>10575</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
       <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>6151</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
       <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>2283</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>10841</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
       <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>10575</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
       <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>6151</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>11982</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>8408</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>16285</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>103</v>
+        <v>1403</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
       <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B16" s="2">
+        <v>500</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B17" s="2">
+        <v>400</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>900023</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B18" s="2">
+        <v>403</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B19" s="2">
+        <v>101</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B20" s="2">
+        <v>401</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B21" s="2">
+        <v>501</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B22" s="2">
+        <v>200</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
     </row>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E103861-2B5B-4930-B059-2371CD8E14C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BD86E-8348-4337-8865-EF86F0B8C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D16" sqref="D16:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -738,7 +738,7 @@
         <v>500</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>400</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>900023</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>9</v>
@@ -784,7 +784,7 @@
         <v>403</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>401</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>501</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>200</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BD86E-8348-4337-8865-EF86F0B8C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576FF2A-E9A9-4477-9326-A75DAB116A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -457,9 +457,6 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>17</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576FF2A-E9A9-4477-9326-A75DAB116A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81158D-9571-4CD9-85AE-935553E46641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -457,6 +457,9 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81158D-9571-4CD9-85AE-935553E46641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40780DF1-7EF5-4492-AC1B-C9BA59ECD9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>kol</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -475,13 +475,16 @@
         <v>1403</v>
       </c>
       <c r="B3" s="2">
-        <v>103</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>10185</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -501,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2283</v>
+        <v>10185</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -521,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>10841</v>
+        <v>2283</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -541,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>10575</v>
+        <v>10841</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -561,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>6151</v>
+        <v>10575</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -581,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>2283</v>
+        <v>6151</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -601,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>10841</v>
+        <v>2283</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -621,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>10575</v>
+        <v>10841</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>6151</v>
+        <v>10575</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -661,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>11982</v>
+        <v>6151</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -681,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>8408</v>
+        <v>11982</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -701,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>16285</v>
+        <v>8408</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -721,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>16285</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -735,16 +738,13 @@
         <v>1403</v>
       </c>
       <c r="B16" s="2">
-        <v>500</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>1403</v>
       </c>
       <c r="B17" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1403</v>
       </c>
       <c r="B18" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>1403</v>
       </c>
       <c r="B19" s="2">
-        <v>101</v>
+        <v>403</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1403</v>
       </c>
       <c r="B20" s="2">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>1403</v>
       </c>
       <c r="B21" s="2">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -873,21 +873,44 @@
         <v>1403</v>
       </c>
       <c r="B22" s="2">
+        <v>501</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B23" s="2">
         <v>200</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40780DF1-7EF5-4492-AC1B-C9BA59ECD9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870EB9C-B0AD-498C-8140-871E5155B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>103</v>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>10185</v>
+        <v>110185</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>103</v>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>2283</v>
+        <v>102283</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>103</v>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>10841</v>
+        <v>110841</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>103</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>10575</v>
+        <v>110575</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>103</v>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>6151</v>
+        <v>106151</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>103</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>2283</v>
+        <v>102283</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
         <v>103</v>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>10841</v>
+        <v>110841</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2">
         <v>103</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>10575</v>
+        <v>110575</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>103</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>6151</v>
+        <v>106151</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>103</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>11982</v>
+        <v>111982</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>103</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>8408</v>
+        <v>108408</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>103</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>16285</v>
+        <v>116285</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>100003</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydjango\mojallal24mehr\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870EB9C-B0AD-498C-8140-871E5155B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BABBD-A287-4D40-8F5C-18BD54CE2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>kol</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>is_new</t>
-  </si>
-  <si>
-    <t>انبارگرداني</t>
   </si>
   <si>
     <t>acc_year</t>
@@ -403,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -423,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -449,19 +446,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>110185</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -472,19 +466,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>102283</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -504,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>110185</v>
+        <v>110841</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -524,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>102283</v>
+        <v>110575</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -544,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>110841</v>
+        <v>106151</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -564,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>110575</v>
+        <v>102283</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -584,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>106151</v>
+        <v>110841</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -604,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>102283</v>
+        <v>110575</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -624,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>110841</v>
+        <v>106151</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -644,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>110575</v>
+        <v>111982</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -664,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>106151</v>
+        <v>108408</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -684,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>111982</v>
+        <v>116285</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -695,7 +686,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="B14" s="2">
         <v>103</v>
@@ -704,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>108408</v>
+        <v>100003</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -715,16 +706,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="B15" s="2">
-        <v>103</v>
+        <v>500</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>116285</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -738,13 +732,16 @@
         <v>1403</v>
       </c>
       <c r="B16" s="2">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>100003</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -758,7 +755,7 @@
         <v>1403</v>
       </c>
       <c r="B17" s="2">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -767,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -781,7 +778,7 @@
         <v>1403</v>
       </c>
       <c r="B18" s="2">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -804,7 +801,7 @@
         <v>1403</v>
       </c>
       <c r="B19" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -813,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -827,7 +824,7 @@
         <v>1403</v>
       </c>
       <c r="B20" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -836,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>1403</v>
       </c>
       <c r="B21" s="2">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -859,58 +856,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2">
-        <v>1403</v>
-      </c>
-      <c r="B22" s="2">
-        <v>501</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2">
-        <v>1403</v>
-      </c>
-      <c r="B23" s="2">
-        <v>200</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/temp/mycondition.xlsx
+++ b/temp/mycondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751BABBD-A287-4D40-8F5C-18BD54CE2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C7B8A6-866C-46C2-80C1-5B510736AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>kol</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>بستن حساب هاي بدهي</t>
+  </si>
+  <si>
+    <t>انبارگرداني</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -865,6 +868,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B22" s="2">
+        <v>501</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>400017</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
